--- a/[Document]/소개운영자료/DIVE_개인정보_진로현황.xlsx
+++ b/[Document]/소개운영자료/DIVE_개인정보_진로현황.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\[Document]\소개운영자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE52EB6E-F9C9-45C3-8110-FBFD3BC2F444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D659C5-4590-4F1B-8EB8-B3C762289CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
   <si>
     <t>DEBA 기수</t>
   </si>
@@ -358,6 +358,26 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>기수</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1기</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2기</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2기(학부연구생)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1기(학부연구생)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -367,7 +387,53 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>[인천대 산학 캡스톤디지인 경진대회 금상]</t>
+      <t>[KCI 논문 진행중]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 영화 및 드라마 컨텐츠의 온라인 리뷰 빅데이터 기반 시청자 의견과 감성 트랜드 텍스트 분석</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+[SK T&amp;C 재단 보고서]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Ageism 문제의식 공감대 확산을 위한 한국 사회의 세대간 갈등 트렌드 빅데이터 분석 및 텍스트마이닝 분석</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[2025 인천대 산학 캡스톤디지인 경진대회 금상]</t>
     </r>
     <r>
       <rPr>
@@ -382,23 +448,185 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>기수</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1기</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2기</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2기(학부연구생)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1기(학부연구생)</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[인문사회융합인재사업단 AI경진대회 장려상]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 뿌리 기업 맞춤형 정책 지원 챗봇
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[KCI 논문 진행중]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 평생교육 참여의 미래를 여는 비즈니스 애널리틱스: 비형식학습 참여자 특성 및 프로그램 유도 전략
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[KCI 논문 진행중]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 설명가능한 AI를 활용한 비형식학습 참여자 특성 및 만족도 분석: 평생학습 유도와 지속가능한 교육을 위하여</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[KCI 논문 진행중]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 평생교육 참여의 미래를 여는 비즈니스 애널리틱스: 비형식학습 참여자 특성 및 프로그램 유도 전략
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[KCI 논문 진행중]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 설명가능한 AI를 활용한 비형식학습 참여자 특성 및 만족도 분석: 평생학습 유도와 지속가능한 교육을 위하여</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[2025 실리콘밸리 하계 테커 부트캠프 최우수상]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> AI 가상피팅 쇼핑몰
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>- 발표:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> https://youtu.be/1QpcfX3ojxg?si=RpBKt5byKPpe2dWR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>- Github:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> https://github.com/2025-Techeer-Summer-Bootcamp-Team-C</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -538,50 +766,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -801,437 +1038,445 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.453125" customWidth="1"/>
-    <col min="8" max="8" width="54.1796875" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="28" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.44140625" customWidth="1"/>
+    <col min="8" max="8" width="54.21875" style="18" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="28" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
+    <row r="1" spans="1:10" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="H1" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="17">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" ht="17.399999999999999">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.399999999999999">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>5</v>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6">
+        <v>201800875</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:10" ht="87">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5">
+        <v>201900884</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="87">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6">
+        <v>202100790</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.399999999999999">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6">
+        <v>202100794</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="87">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7">
-        <v>201800875</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5">
+        <v>201900833</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="121.8">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5">
+        <v>202200803</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="87">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5">
+        <v>202201788</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.399999999999999">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="5">
+        <v>202300502</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17.399999999999999">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5">
+        <v>202300733</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>11</v>
+      <c r="G12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="85">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6">
-        <v>201900884</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>14</v>
+    <row r="13" spans="1:10" ht="121.8">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="5">
+        <v>202300811</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="85">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="7">
-        <v>202100790</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>17</v>
+    <row r="14" spans="1:10" ht="104.4">
+      <c r="A14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="5">
+        <v>201901374</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7">
-        <v>202100794</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="85">
-      <c r="A8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="15" spans="1:10" ht="34.799999999999997">
+      <c r="A15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6">
-        <v>201900833</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17">
-      <c r="A9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="6">
-        <v>202200803</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="6">
-        <v>202201788</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17">
-      <c r="A11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="6">
-        <v>202300502</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17">
-      <c r="A12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="6">
-        <v>202300733</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="6">
-        <v>202300811</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17">
-      <c r="A14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="6">
-        <v>201901374</v>
-      </c>
-      <c r="F14" s="14" t="s">
+      <c r="D15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="5">
+        <v>202202884</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="34">
-      <c r="A15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="6">
-        <v>202202884</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="12" t="s">
+      <c r="H15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>56</v>
       </c>
     </row>

--- a/[Document]/소개운영자료/DIVE_개인정보_진로현황.xlsx
+++ b/[Document]/소개운영자료/DIVE_개인정보_진로현황.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\[Document]\소개운영자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D659C5-4590-4F1B-8EB8-B3C762289CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DD3CA9-4FE0-49D9-9894-769257348F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -254,6 +254,358 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>실적(최신순)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>토스 인턴 &gt; 인천대학교 무역학부</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼일회계법인 인턴 &gt; 인천대학교 무역학부(컴퓨터공학부)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[KCI 논문 진행중]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 온라인 텍스트 마이닝 감성 분석을 통한 한국의 환율 예측 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[한국빅데이터학회 학회지]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 설명가능한 인공지능 활용 서울시 지하철 혼잡도 예측과  정책적 의사결정 지원을 위한 비즈니스 애널리틱스</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>기수</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1기</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2기</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2기(학부연구생)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1기(학부연구생)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[KCI 논문 진행중]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 영화 및 드라마 컨텐츠의 온라인 리뷰 빅데이터 기반 시청자 의견과 감성 트랜드 텍스트 분석</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+[SK T&amp;C 재단 보고서]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Ageism 문제의식 공감대 확산을 위한 한국 사회의 세대간 갈등 트렌드 빅데이터 분석 및 텍스트마이닝 분석</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[2025 인천대 산학 캡스톤디지인 경진대회 금상]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 인천 e음 카드 소비 패턴 예측 및 캐시백 최적화</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[인문사회융합인재사업단 AI경진대회 장려상]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 뿌리 기업 맞춤형 정책 지원 챗봇
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[KCI 논문 진행중]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 평생교육 참여의 미래를 여는 비즈니스 애널리틱스: 비형식학습 참여자 특성 및 프로그램 유도 전략
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[KCI 논문 진행중]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 설명가능한 AI를 활용한 비형식학습 참여자 특성 및 만족도 분석: 평생학습 유도와 지속가능한 교육을 위하여</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[KCI 논문 진행중]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 평생교육 참여의 미래를 여는 비즈니스 애널리틱스: 비형식학습 참여자 특성 및 프로그램 유도 전략
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[KCI 논문 진행중]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 설명가능한 AI를 활용한 비형식학습 참여자 특성 및 만족도 분석: 평생학습 유도와 지속가능한 교육을 위하여</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[2025 실리콘밸리 하계 테커 부트캠프 최우수상]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> AI 가상피팅 쇼핑몰
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>- 발표:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> https://youtu.be/1QpcfX3ojxg?si=RpBKt5byKPpe2dWR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>- Github:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> https://github.com/2025-Techeer-Summer-Bootcamp-Team-C</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[2025 공간정보 활용·아이디어 경진대회 상(상)]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 탑승 가능성 기반 광역버스 정류장 추천 서비스 "안기다 버스"(안기다리고 타는 버스)
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -296,336 +648,6 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> Ageism 문제의식 공감대 확산을 위한 한국 사회의 세대간 갈등 트렌드 빅데이터 분석 및 텍스트마이닝 분석</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>실적(최신순)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>토스 인턴 &gt; 인천대학교 무역학부</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼일회계법인 인턴 &gt; 인천대학교 무역학부(컴퓨터공학부)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[KCI 논문 진행중]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 온라인 텍스트 마이닝 감성 분석을 통한 한국의 환율 예측 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[한국빅데이터학회 학회지]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 설명가능한 인공지능 활용 서울시 지하철 혼잡도 예측과  정책적 의사결정 지원을 위한 비즈니스 애널리틱스</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>기수</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1기</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2기</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2기(학부연구생)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1기(학부연구생)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[KCI 논문 진행중]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 영화 및 드라마 컨텐츠의 온라인 리뷰 빅데이터 기반 시청자 의견과 감성 트랜드 텍스트 분석</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-[SK T&amp;C 재단 보고서]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> Ageism 문제의식 공감대 확산을 위한 한국 사회의 세대간 갈등 트렌드 빅데이터 분석 및 텍스트마이닝 분석</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[2025 인천대 산학 캡스톤디지인 경진대회 금상]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 인천 e음 카드 소비 패턴 예측 및 캐시백 최적화</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[인문사회융합인재사업단 AI경진대회 장려상]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 뿌리 기업 맞춤형 정책 지원 챗봇
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[KCI 논문 진행중]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 평생교육 참여의 미래를 여는 비즈니스 애널리틱스: 비형식학습 참여자 특성 및 프로그램 유도 전략
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[KCI 논문 진행중]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 설명가능한 AI를 활용한 비형식학습 참여자 특성 및 만족도 분석: 평생학습 유도와 지속가능한 교육을 위하여</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[KCI 논문 진행중]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 평생교육 참여의 미래를 여는 비즈니스 애널리틱스: 비형식학습 참여자 특성 및 프로그램 유도 전략
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[KCI 논문 진행중]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 설명가능한 AI를 활용한 비형식학습 참여자 특성 및 만족도 분석: 평생학습 유도와 지속가능한 교육을 위하여</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[2025 실리콘밸리 하계 테커 부트캠프 최우수상]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> AI 가상피팅 쇼핑몰
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>- 발표:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> https://youtu.be/1QpcfX3ojxg?si=RpBKt5byKPpe2dWR
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>- Github:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> https://github.com/2025-Techeer-Summer-Bootcamp-Team-C</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -809,9 +831,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -819,6 +838,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1039,8 +1061,8 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -1052,7 +1074,7 @@
     <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.44140625" customWidth="1"/>
-    <col min="8" max="8" width="54.21875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="54.21875" style="17" customWidth="1"/>
     <col min="9" max="9" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="28" width="8.77734375" customWidth="1"/>
@@ -1063,21 +1085,21 @@
         <v>40</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="16"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="17.399999999999999">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
@@ -1094,8 +1116,8 @@
       <c r="G3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>68</v>
+      <c r="H3" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>4</v>
@@ -1109,7 +1131,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -1134,12 +1156,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="87">
+    <row r="5" spans="1:10" ht="139.19999999999999">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
@@ -1157,7 +1179,7 @@
         <v>66</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>52</v>
@@ -1171,7 +1193,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>60</v>
@@ -1189,7 +1211,7 @@
         <v>46</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>16</v>
@@ -1203,7 +1225,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
@@ -1218,7 +1240,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="6" t="s">
@@ -1233,7 +1255,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>22</v>
@@ -1248,10 +1270,10 @@
         <v>58</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>24</v>
@@ -1265,7 +1287,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>22</v>
@@ -1283,7 +1305,7 @@
         <v>47</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>27</v>
@@ -1297,7 +1319,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>22</v>
@@ -1315,7 +1337,7 @@
         <v>48</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>31</v>
@@ -1329,7 +1351,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>41</v>
@@ -1359,7 +1381,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>22</v>
@@ -1389,7 +1411,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>22</v>
@@ -1407,7 +1429,7 @@
         <v>47</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>37</v>
@@ -1421,7 +1443,7 @@
         <v>62</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>41</v>
@@ -1439,7 +1461,7 @@
         <v>51</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>64</v>
@@ -1453,7 +1475,7 @@
         <v>62</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>41</v>
@@ -1471,7 +1493,7 @@
         <v>51</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>55</v>

--- a/[Document]/소개운영자료/DIVE_개인정보_진로현황.xlsx
+++ b/[Document]/소개운영자료/DIVE_개인정보_진로현황.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\[Document]\소개운영자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DD3CA9-4FE0-49D9-9894-769257348F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF476B4-F84E-44F8-A2DA-2D0D7C4F3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -593,7 +593,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>[2025 공간정보 활용·아이디어 경진대회 상(상)]</t>
+      <t>[2025 공간정보 활용·아이디어 경진대회 최우수상]</t>
     </r>
     <r>
       <rPr>
@@ -1065,22 +1065,22 @@
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.44140625" customWidth="1"/>
-    <col min="8" max="8" width="54.21875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="28" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.453125" customWidth="1"/>
+    <col min="8" max="8" width="54.1796875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="28" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999">
+    <row r="1" spans="1:10" ht="17">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1094,7 +1094,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="15"/>
     </row>
-    <row r="3" spans="1:10" ht="17.399999999999999">
+    <row r="3" spans="1:10" ht="17">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.399999999999999">
+    <row r="4" spans="1:10" ht="17">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="139.19999999999999">
+    <row r="5" spans="1:10" ht="136">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="87">
+    <row r="6" spans="1:10" ht="85">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17.399999999999999">
+    <row r="7" spans="1:10" ht="17">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="87">
+    <row r="8" spans="1:10" ht="85">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="121.8">
+    <row r="9" spans="1:10" ht="119">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="87">
+    <row r="10" spans="1:10" ht="85">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17.399999999999999">
+    <row r="11" spans="1:10" ht="17">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17.399999999999999">
+    <row r="12" spans="1:10" ht="17">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="121.8">
+    <row r="13" spans="1:10" ht="119">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="104.4">
+    <row r="14" spans="1:10" ht="102">
       <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="34.799999999999997">
+    <row r="15" spans="1:10" ht="34">
       <c r="A15" s="4" t="s">
         <v>62</v>
       </c>

--- a/[Document]/소개운영자료/DIVE_개인정보_진로현황.xlsx
+++ b/[Document]/소개운영자료/DIVE_개인정보_진로현황.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\[Document]\소개운영자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C63346A-1390-4375-B260-C8441C3CBBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD948C86-8E09-43D3-99D4-0FACD4E80F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="0" windowWidth="19400" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2353,6 +2353,2900 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>평생교육</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참여의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미래를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비즈니스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>애널리틱스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비형식학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참여자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로그램</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전략
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행중</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">KCI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">논문 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비형식학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참여자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만족도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>평생학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유도와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지속가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교육을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">위하여
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[2025.11] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">한국경영과학회 추계학술대회 경쟁부문 최우수논문상 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">설명가능한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반 평생학습 참여촉진 프로그램 정책: 디지털 전환과 고령사회에서의 시사점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[2025.08] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인문사회융합인재사업단 AI경진대회 장려상 |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 뿌리 기업 맞춤형 정책 지원 챗봇</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행중</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">KCI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">논문 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>평생교육</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참여의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미래를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비즈니스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>애널리틱스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비형식학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참여자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로그램</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전략
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행중</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">KCI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">논문 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비형식학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참여자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만족도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>평생학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유도와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지속가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교육을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">위하여
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[2025.11] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">한국경영과학회 추계학술대회 경쟁부문 최우수논문상 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">설명가능한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반 평생학습 참여촉진 프로그램 정책: 디지털 전환과 고령사회에서의 시사점</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[2025.09] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공간정보</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경진대회</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">최우수상(진흥원장상+100만원) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탑승</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>광역버스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정류장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서비스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안기다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안기다리고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[2025.06] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">한국경영과학회 춘계공동학술대회 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고성능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시계열</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딥러닝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알고리즘을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미래</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교통수요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">예측
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[2025.06] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한국빅데이터학회 학회지 |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 2025년도 KTX 수요 예측 및 정책적 의사결정: XAI 기반 실증적 예측연구
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[2024.06] SK T&amp;C </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재단 보고서 |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ageism </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문제의식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공감대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확산을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한국</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사회의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세대간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>갈등</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트렌드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빅데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>텍스트마이닝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[2025.07] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인천대</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산학</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캡스톤디지인</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경진대회</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">금상 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>패턴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예측</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐시백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최적화</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[2025.08] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실리콘밸리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하계</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테커</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부트캠프</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">최우수상 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가상피팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쇼핑몰</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행중</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">KCI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">논문 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>온라인</t>
     </r>
     <r>
@@ -2535,48 +5429,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">[2025.06] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한국빅데이터학회</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">학회지 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
+      <t xml:space="preserve">[2025.09] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">정보과학회논문지 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>|</t>
     </r>
@@ -2586,1001 +5458,18 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설명가능한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인공지능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>활용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>서울시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지하철</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>혼잡도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예측과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정책적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의사결정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지원을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비즈니스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>애널리틱스</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행중</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">KCI </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">논문 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>평생교육</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참여의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미래를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>여는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비즈니스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>애널리틱스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비형식학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참여자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>특성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로그램</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">전략
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행중</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">KCI </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">논문 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설명가능한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>활용한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비형식학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참여자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>특성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>만족도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>평생학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유도와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지속가능한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교육을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">위하여
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">[2025.11] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">한국경영과학회 추계학술대회 경쟁부문 최우수논문상 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">설명가능한 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">AI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기반 평생학습 참여촉진 프로그램 정책: 디지털 전환과 고령사회에서의 시사점</t>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딥러닝과 은닉 마르코프 모델을 연계한 연속적인손 제스처 적출에 관한 연구</t>
     </r>
     <r>
       <rPr>
@@ -3602,85 +5491,40 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">[2025.08] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인문사회융합인재사업단 AI경진대회 장려상 |</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 뿌리 기업 맞춤형 정책 지원 챗봇</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행중</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">KCI </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">논문 </t>
+      <t xml:space="preserve">[2025.06] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한국빅데이터학회</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">학회지 </t>
     </r>
     <r>
       <rPr>
@@ -3710,67 +5554,207 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>평생교육</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참여의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미래를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>여는</t>
+      <t>설명가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인공지능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서울시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지하철</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혼잡도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예측과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정책적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의사결정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지원을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위한</t>
     </r>
     <r>
       <rPr>
@@ -3811,1928 +5795,6 @@
         <charset val="129"/>
       </rPr>
       <t>애널리틱스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비형식학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참여자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>특성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로그램</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">전략
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행중</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">KCI </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">논문 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설명가능한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>활용한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비형식학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참여자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>특성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>만족도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>평생학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유도와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지속가능한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교육을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">위하여
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">[2025.11] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">한국경영과학회 추계학술대회 경쟁부문 최우수논문상 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">설명가능한 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">AI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기반 평생학습 참여촉진 프로그램 정책: 디지털 전환과 고령사회에서의 시사점</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[2025.09] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공간정보</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>활용</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이디어</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경진대회</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">최우수상(진흥원장상+100만원) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>탑승</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가능성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기반</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>광역버스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정류장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추천</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>서비스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>안기다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>버스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>안기다리고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>타는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>버스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[2025.06] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">한국경영과학회 춘계공동학술대회 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>고성능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시계열</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>딥러닝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>알고리즘을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>활용한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미래</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교통수요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">예측
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">[2025.06] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한국빅데이터학회 학회지 |</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 2025년도 KTX 수요 예측 및 정책적 의사결정: XAI 기반 실증적 예측연구
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[2024.06] SK T&amp;C </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>재단 보고서 |</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Ageism </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문제의식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공감대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확산을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한국</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사회의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세대간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>갈등</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>트렌드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>빅데이터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>텍스트마이닝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[2025.07] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인천대</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>산학</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캡스톤디지인</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경진대회</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">금상 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인천</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>카드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소비</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>패턴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예측</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐시백</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최적화</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[2025.08] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>실리콘밸리</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하계</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테커</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부트캠프</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">최우수상 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> AI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가상피팅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>쇼핑몰</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -5741,7 +5803,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5884,6 +5946,12 @@
       <name val="Calibri"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -5979,9 +6047,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5989,6 +6054,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6212,7 +6280,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5"/>
@@ -6221,7 +6289,7 @@
     <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.6328125" style="19" customWidth="1"/>
+    <col min="5" max="6" width="15.6328125" style="18" customWidth="1"/>
     <col min="7" max="7" width="70.6328125" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.54296875" bestFit="1" customWidth="1"/>
@@ -6232,13 +6300,13 @@
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="29">
@@ -6373,7 +6441,7 @@
         <v>74</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>26</v>
@@ -6382,7 +6450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="58">
+    <row r="8" spans="1:9" ht="85">
       <c r="A8" s="7" t="s">
         <v>79</v>
       </c>
@@ -6395,14 +6463,14 @@
       <c r="D8" s="8">
         <v>201900833</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>82</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>11</v>
@@ -6424,14 +6492,14 @@
       <c r="D9" s="8">
         <v>202200803</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>84</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>13</v>
@@ -6453,14 +6521,14 @@
       <c r="D10" s="8">
         <v>202201788</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>87</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>16</v>
@@ -6482,7 +6550,7 @@
       <c r="D11" s="8">
         <v>202300502</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>89</v>
       </c>
       <c r="F11" s="10" t="s">
@@ -6509,7 +6577,7 @@
       <c r="D12" s="8">
         <v>202300733</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>92</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -6536,14 +6604,14 @@
       <c r="D13" s="8">
         <v>202300811</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>84</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>20</v>
@@ -6565,14 +6633,14 @@
       <c r="D14" s="8">
         <v>201901374</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>97</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>32</v>
@@ -6594,14 +6662,14 @@
       <c r="D15" s="8">
         <v>202202884</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>97</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>29</v>
@@ -6623,10 +6691,10 @@
       <c r="D16" s="4">
         <v>202100256</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="15"/>
       <c r="H16" s="4" t="s">
         <v>43</v>
@@ -6648,10 +6716,10 @@
       <c r="D17" s="4">
         <v>202100743</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="15"/>
       <c r="H17" s="4" t="s">
         <v>58</v>
@@ -6673,10 +6741,10 @@
       <c r="D18" s="4">
         <v>202200776</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="15"/>
       <c r="H18" s="4" t="s">
         <v>47</v>
@@ -6698,10 +6766,10 @@
       <c r="D19" s="4">
         <v>202201705</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="15"/>
       <c r="H19" s="4" t="s">
         <v>55</v>
@@ -6723,10 +6791,10 @@
       <c r="D20" s="4">
         <v>202300822</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="15"/>
       <c r="H20" s="4" t="s">
         <v>53</v>
@@ -6748,10 +6816,10 @@
       <c r="D21" s="4">
         <v>202301275</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="15"/>
       <c r="H21" s="4" t="s">
         <v>45</v>
@@ -6773,10 +6841,10 @@
       <c r="D22" s="4">
         <v>202400733</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="15"/>
       <c r="H22" s="4" t="s">
         <v>51</v>
@@ -6798,10 +6866,10 @@
       <c r="D23" s="4">
         <v>202401802</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="15"/>
       <c r="H23" s="4" t="s">
         <v>49</v>

--- a/[Document]/소개운영자료/DIVE_개인정보_진로현황.xlsx
+++ b/[Document]/소개운영자료/DIVE_개인정보_진로현황.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\[Document]\소개운영자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD948C86-8E09-43D3-99D4-0FACD4E80F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EC5D8F-427C-49D4-BE0C-49F46467AB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="0" windowWidth="19400" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2353,6 +2353,1541 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>온라인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>텍스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마이닝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한국의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환율</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예측</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[2025.09] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">정보과학회논문지 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딥러닝과 은닉 마르코프 모델을 연계한 연속적인손 제스처 적출에 관한 연구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[2025.06] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한국빅데이터학회</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">학회지 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인공지능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서울시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지하철</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혼잡도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예측과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정책적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의사결정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지원을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비즈니스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>애널리틱스</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[2025.09] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공간정보</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경진대회</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">최우수상(2위, 진흥원장상+100만원) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탑승</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>광역버스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정류장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서비스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안기다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안기다리고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[2025.06] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">한국경영과학회 춘계공동학술대회 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고성능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시계열</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딥러닝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알고리즘을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미래</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교통수요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">예측
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[2025.06] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한국빅데이터학회 학회지 |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 2025년도 KTX 수요 예측 및 정책적 의사결정: XAI 기반 실증적 예측연구
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[2024.06] SK T&amp;C </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재단 보고서 |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ageism </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문제의식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공감대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확산을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한국</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사회의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세대간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>갈등</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트렌드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빅데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>텍스트마이닝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행중</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">KCI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">논문 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>평생교육</t>
     </r>
     <r>
@@ -2960,7 +4495,912 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">한국경영과학회 추계학술대회 경쟁부문 최우수논문상 </t>
+      <t xml:space="preserve">한국경영과학회 추계학술대회 경쟁부문 최우수논문상(1위) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">설명가능한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반 평생학습 참여촉진 프로그램 정책: 디지털 전환과 고령사회에서의 시사점</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[2025.08] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실리콘밸리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하계</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테커</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부트캠프</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">최우수상(1위) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가상피팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쇼핑몰</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행중</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">KCI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">논문 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>평생교육</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참여의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미래를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비즈니스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>애널리틱스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비형식학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참여자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로그램</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전략
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행중</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">KCI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">논문 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비형식학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참여자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만족도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>평생학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유도와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지속가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교육을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">위하여
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[2025.11] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">한국경영과학회 추계학술대회 경쟁부문 최우수논문상(1위) </t>
     </r>
     <r>
       <rPr>
@@ -3041,7 +5481,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>인문사회융합인재사업단 AI경진대회 장려상 |</t>
+      <t>인문사회융합인재사업단 AI경진대회 장려상(3위) |</t>
     </r>
     <r>
       <rPr>
@@ -3065,50 +5505,106 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행중</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">KCI </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">논문 </t>
+      <t xml:space="preserve">[2025.07] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인천대</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산학</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캡스톤디지인</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경진대회</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">금상(2위) </t>
     </r>
     <r>
       <rPr>
@@ -3138,167 +5634,107 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>평생교육</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참여의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미래를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>여는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비즈니스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>애널리틱스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비형식학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참여자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>특성</t>
+      <t>인천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>패턴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예측</t>
     </r>
     <r>
       <rPr>
@@ -3338,1645 +5774,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>프로그램</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">전략
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행중</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">KCI </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">논문 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설명가능한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>활용한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비형식학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참여자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>특성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>만족도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>평생학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유도와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지속가능한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교육을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">위하여
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">[2025.11] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">한국경영과학회 추계학술대회 경쟁부문 최우수논문상 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">설명가능한 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">AI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기반 평생학습 참여촉진 프로그램 정책: 디지털 전환과 고령사회에서의 시사점</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[2025.09] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공간정보</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>활용</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이디어</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경진대회</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">최우수상(진흥원장상+100만원) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>탑승</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가능성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기반</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>광역버스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정류장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추천</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>서비스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>안기다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>버스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>안기다리고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>타는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>버스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[2025.06] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">한국경영과학회 춘계공동학술대회 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>고성능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시계열</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>딥러닝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>알고리즘을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>활용한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미래</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교통수요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">예측
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">[2025.06] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한국빅데이터학회 학회지 |</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 2025년도 KTX 수요 예측 및 정책적 의사결정: XAI 기반 실증적 예측연구
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[2024.06] SK T&amp;C </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>재단 보고서 |</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Ageism </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문제의식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공감대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확산을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한국</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사회의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세대간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>갈등</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>트렌드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>빅데이터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>텍스트마이닝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[2025.07] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인천대</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>산학</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캡스톤디지인</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경진대회</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">금상 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인천</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>카드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소비</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>패턴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예측</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>캐시백</t>
     </r>
     <r>
@@ -4998,803 +5795,6 @@
         <charset val="129"/>
       </rPr>
       <t>최적화</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[2025.08] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>실리콘밸리</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하계</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테커</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부트캠프</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">최우수상 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> AI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가상피팅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>쇼핑몰</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행중</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">KCI </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">논문 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>온라인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>텍스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마이닝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>감성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한국의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>환율</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예측</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[2025.09] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">정보과학회논문지 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>딥러닝과 은닉 마르코프 모델을 연계한 연속적인손 제스처 적출에 관한 연구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[2025.06] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한국빅데이터학회</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">학회지 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설명가능한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인공지능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>활용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>서울시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지하철</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>혼잡도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예측과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정책적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의사결정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지원을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비즈니스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>애널리틱스</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -6277,10 +6277,10 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5"/>
@@ -6441,7 +6441,7 @@
         <v>74</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>26</v>
@@ -6470,7 +6470,7 @@
         <v>82</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>11</v>
@@ -6499,7 +6499,7 @@
         <v>84</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>13</v>
@@ -6528,7 +6528,7 @@
         <v>87</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>16</v>
@@ -6611,7 +6611,7 @@
         <v>84</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>20</v>
@@ -6640,7 +6640,7 @@
         <v>97</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>32</v>
@@ -6669,7 +6669,7 @@
         <v>97</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>29</v>
